--- a/data/trans_camb/P36BPD07_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Dificultad-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-21.73038408056797</v>
+        <v>21.73038408056799</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-13.21158518013488</v>
+        <v>13.21158518013489</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-16.95864246275026</v>
+        <v>16.95864246275023</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-26.79976396086324</v>
+        <v>16.31236611216781</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-17.05263966130601</v>
+        <v>8.801271778527841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-20.31495513696605</v>
+        <v>13.5836825518331</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-16.3123661121678</v>
+        <v>26.79976396086327</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.801271778527839</v>
+        <v>17.052639661306</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-13.58368255183311</v>
+        <v>20.31495513696606</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.2678742126767765</v>
+        <v>1.151071133426463</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1605446709307303</v>
+        <v>0.7460913468002401</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2074727432967522</v>
+        <v>0.9286877685456765</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3270228889470574</v>
+        <v>0.7866974808702351</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2047305807464791</v>
+        <v>0.4588437328715612</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2462775963244447</v>
+        <v>0.7005969929817291</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2051044446613849</v>
+        <v>1.544090383078616</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1089917364623284</v>
+        <v>1.053560116165653</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1663728476610223</v>
+        <v>1.177728291832187</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-23.16644007117502</v>
+        <v>23.16644007117502</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-17.03734527569522</v>
+        <v>17.0373452756952</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-19.84769525136192</v>
+        <v>19.84769525136192</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-27.21074545076532</v>
+        <v>18.6774128563996</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-20.65038306230025</v>
+        <v>13.93561286595856</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-22.47872652951551</v>
+        <v>17.33578629682722</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-18.67741285639961</v>
+        <v>27.21074545076532</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-13.93561286595855</v>
+        <v>20.65038306230025</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-17.33578629682721</v>
+        <v>22.47872652951552</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.2700258338932693</v>
+        <v>1.630683939507016</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1941736215785911</v>
+        <v>1.389991415211662</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.228613483824311</v>
+        <v>1.505631391522254</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3124927009152108</v>
+        <v>1.135265415345074</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2323463674002929</v>
+        <v>0.9891759293278723</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2561114328130062</v>
+        <v>1.183933243316543</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.2215453518387005</v>
+        <v>2.112492674691665</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1611983174262989</v>
+        <v>1.890143172181732</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2011269558021983</v>
+        <v>1.869638445033588</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-13.934315737291</v>
+        <v>13.934315737291</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-14.42195183795721</v>
+        <v>14.42195183795724</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-14.10687753110753</v>
+        <v>14.10687753110752</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.6200297545513</v>
+        <v>9.969447632368116</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.47844878609067</v>
+        <v>11.01969295563167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-16.70062463504446</v>
+        <v>11.60096833216535</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-9.969447632368112</v>
+        <v>17.62002975455128</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-11.01969295563167</v>
+        <v>17.47844878609069</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-11.60096833216535</v>
+        <v>16.70062463504445</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.1608194219682143</v>
+        <v>1.043434994223204</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.1577724178196978</v>
+        <v>1.678892565539953</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.158582146269684</v>
+        <v>1.277366259947213</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2008143994041586</v>
+        <v>0.6423409539325471</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1882114949852658</v>
+        <v>1.049023557298269</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1865621069887049</v>
+        <v>0.9416717360167318</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1178722404814098</v>
+        <v>1.56328473642435</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1224967353439979</v>
+        <v>2.444046784089515</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1321974056895851</v>
+        <v>1.692700817906565</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-1.255632396938988</v>
+        <v>1.255632396938991</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-1.621145837111826</v>
+        <v>1.621145837111816</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.457422702301403</v>
+        <v>1.457422702301386</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.742512507573239</v>
+        <v>-3.015892658296391</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.361572821250649</v>
+        <v>-1.980739780858258</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.262140557301372</v>
+        <v>-1.862745921342025</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.015892658296391</v>
+        <v>5.742512507573242</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.980739780858276</v>
+        <v>5.361572821250665</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.862745921342025</v>
+        <v>4.262140557301386</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.01473138145221687</v>
+        <v>0.08504234922117228</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.0183718281274671</v>
+        <v>0.1378625700598255</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.01680845022147899</v>
+        <v>0.1096444480574596</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.06620023520615945</v>
+        <v>-0.1715836962434228</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05936635542375985</v>
+        <v>-0.1429883316755482</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04859007275239866</v>
+        <v>-0.1234993550092958</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03617237665832798</v>
+        <v>0.4603497701150535</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.02314172076503519</v>
+        <v>0.5442631581187617</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02189436203738051</v>
+        <v>0.357292618485006</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-13.15838696194445</v>
+        <v>13.15838696194445</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-10.54429804387221</v>
+        <v>10.54429804387223</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-11.80581575495947</v>
+        <v>11.80581575495946</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-15.26500226497998</v>
+        <v>11.05486943756393</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.43918207950281</v>
+        <v>8.946319416712051</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.22061754062134</v>
+        <v>10.50937453245459</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-11.05486943756394</v>
+        <v>15.26500226497997</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-8.946319416712049</v>
+        <v>12.43918207950278</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-10.50937453245459</v>
+        <v>13.22061754062134</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.1560011868144822</v>
+        <v>0.8406836698032948</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.1216698161582511</v>
+        <v>0.7906179779534892</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1380268750136854</v>
+        <v>0.816036312083996</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1789495690571358</v>
+        <v>0.6759188478794023</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1419652902750788</v>
+        <v>0.6298549300794773</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.153977541368059</v>
+        <v>0.6975453882466148</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.131957766203673</v>
+        <v>1.040733020641609</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1040616607128522</v>
+        <v>0.991914213068512</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1237360359694287</v>
+        <v>0.9535386854690375</v>
       </c>
     </row>
     <row r="34">

--- a/data/trans_camb/P36BPD07_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Dificultad-trans_camb.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día</t>
+          <t>Población que consume al menos una bebida azucarada por día</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P36BPD07_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Dificultad-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>21.73038408056799</v>
+        <v>21.73038408056798</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>13.21158518013489</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16.95864246275023</v>
+        <v>16.95864246275024</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.31236611216781</v>
+        <v>16.06211875521202</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.801271778527841</v>
+        <v>9.142124488683395</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13.5836825518331</v>
+        <v>13.40478781537018</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>26.79976396086327</v>
+        <v>27.39749083635109</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.052639661306</v>
+        <v>17.54305617968737</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.31495513696606</v>
+        <v>20.16281185065567</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>1.151071133426463</v>
+        <v>1.151071133426462</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.7460913468002401</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.9286877685456765</v>
+        <v>0.9286877685456767</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.7866974808702351</v>
+        <v>0.7861916146370734</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4588437328715612</v>
+        <v>0.4700365574925608</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.7005969929817291</v>
+        <v>0.6923222448966678</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.544090383078616</v>
+        <v>1.547967716282202</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.053560116165653</v>
+        <v>1.069915751466472</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.177728291832187</v>
+        <v>1.155136002428314</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18.6774128563996</v>
+        <v>18.64302620612067</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>13.93561286595856</v>
+        <v>13.90435070464911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17.33578629682722</v>
+        <v>17.2996183007036</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>27.21074545076532</v>
+        <v>27.34413545231482</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.65038306230025</v>
+        <v>20.5727898510454</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22.47872652951552</v>
+        <v>22.75953657803447</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1.135265415345074</v>
+        <v>1.165616040964728</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.9891759293278723</v>
+        <v>0.9818327695843528</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.183933243316543</v>
+        <v>1.175737128142006</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.112492674691665</v>
+        <v>2.224880226566024</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.890143172181732</v>
+        <v>1.936256426086537</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.869638445033588</v>
+        <v>1.835876441691149</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.969447632368116</v>
+        <v>10.23205837893574</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.01969295563167</v>
+        <v>11.3794170683177</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.60096833216535</v>
+        <v>11.49669414978951</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.62002975455128</v>
+        <v>17.9061860462326</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.47844878609069</v>
+        <v>17.46911962932276</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.70062463504445</v>
+        <v>16.42453236284486</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>1.678892565539953</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.277366259947213</v>
+        <v>1.277366259947212</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.6423409539325471</v>
+        <v>0.6566893751246365</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>1.049023557298269</v>
+        <v>1.067275707308989</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.9416717360167318</v>
+        <v>0.9214795467039313</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.56328473642435</v>
+        <v>1.522555792336189</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.444046784089515</v>
+        <v>2.441445092370374</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.692700817906565</v>
+        <v>1.696039041310991</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.015892658296391</v>
+        <v>-2.995575598728065</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.980739780858258</v>
+        <v>-1.748717138132543</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.862745921342025</v>
+        <v>-1.346788814084504</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.742512507573242</v>
+        <v>5.088192826719263</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.361572821250665</v>
+        <v>5.317613212708866</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.262140557301386</v>
+        <v>4.34433879781101</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1715836962434228</v>
+        <v>-0.1771572100086797</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1429883316755482</v>
+        <v>-0.1311021463845936</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1234993550092958</v>
+        <v>-0.08835153318953522</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4603497701150535</v>
+        <v>0.4045643218530715</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5442631581187617</v>
+        <v>0.5822112764576841</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.357292618485006</v>
+        <v>0.3651173016296844</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>11.05486943756393</v>
+        <v>10.91196769217578</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.946319416712051</v>
+        <v>8.808591594788483</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10.50937453245459</v>
+        <v>10.2667306710229</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.26500226497997</v>
+        <v>15.24830161477694</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.43918207950278</v>
+        <v>12.39661801432622</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13.22061754062134</v>
+        <v>13.112566324454</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.6759188478794023</v>
+        <v>0.6536409857526023</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.6298549300794773</v>
+        <v>0.6082202838152374</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.6975453882466148</v>
+        <v>0.6713684003451593</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.040733020641609</v>
+        <v>1.021317581402127</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.991914213068512</v>
+        <v>0.9778670828429422</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9535386854690375</v>
+        <v>0.9453679549019562</v>
       </c>
     </row>
     <row r="34">
